--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ltb-Cd40.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ltb-Cd40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Cd40</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H2">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I2">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J2">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.31638143507503</v>
+        <v>2.734917</v>
       </c>
       <c r="N2">
-        <v>2.31638143507503</v>
+        <v>8.204751</v>
       </c>
       <c r="O2">
-        <v>0.1633259102795807</v>
+        <v>0.1754197244717108</v>
       </c>
       <c r="P2">
-        <v>0.1633259102795807</v>
+        <v>0.1754197244717108</v>
       </c>
       <c r="Q2">
-        <v>4.950454179186465</v>
+        <v>1.469040610492</v>
       </c>
       <c r="R2">
-        <v>4.950454179186465</v>
+        <v>13.221365494428</v>
       </c>
       <c r="S2">
-        <v>0.06427202858435223</v>
+        <v>0.01454993586146022</v>
       </c>
       <c r="T2">
-        <v>0.06427202858435223</v>
+        <v>0.01454993586146021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H3">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I3">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J3">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.24701067541158</v>
+        <v>6.817179333333333</v>
       </c>
       <c r="N3">
-        <v>6.24701067541158</v>
+        <v>20.451538</v>
       </c>
       <c r="O3">
-        <v>0.4404709386970225</v>
+        <v>0.4372592368717496</v>
       </c>
       <c r="P3">
-        <v>0.4404709386970225</v>
+        <v>0.4372592368717496</v>
       </c>
       <c r="Q3">
-        <v>13.35079777330024</v>
+        <v>3.661797886251555</v>
       </c>
       <c r="R3">
-        <v>13.35079777330024</v>
+        <v>32.95618097626399</v>
       </c>
       <c r="S3">
-        <v>0.1733341679470857</v>
+        <v>0.03626783630218837</v>
       </c>
       <c r="T3">
-        <v>0.1733341679470857</v>
+        <v>0.03626783630218836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.13714982525152</v>
+        <v>0.5371426666666667</v>
       </c>
       <c r="H4">
-        <v>2.13714982525152</v>
+        <v>1.611428</v>
       </c>
       <c r="I4">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112125</v>
       </c>
       <c r="J4">
-        <v>0.3935201002359737</v>
+        <v>0.08294355669112122</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.61917960216974</v>
+        <v>6.038607666666667</v>
       </c>
       <c r="N4">
-        <v>5.61917960216974</v>
+        <v>18.115823</v>
       </c>
       <c r="O4">
-        <v>0.3962031510233968</v>
+        <v>0.3873210386565396</v>
       </c>
       <c r="P4">
-        <v>0.3962031510233968</v>
+        <v>0.3873210386565396</v>
       </c>
       <c r="Q4">
-        <v>12.00902870483396</v>
+        <v>3.243593825027111</v>
       </c>
       <c r="R4">
-        <v>12.00902870483396</v>
+        <v>29.19234442524399</v>
       </c>
       <c r="S4">
-        <v>0.1559139037045357</v>
+        <v>0.03212578452747265</v>
       </c>
       <c r="T4">
-        <v>0.1559139037045357</v>
+        <v>0.03212578452747265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.29370319590288</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H5">
-        <v>3.29370319590288</v>
+        <v>0.401303</v>
       </c>
       <c r="I5">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490474</v>
       </c>
       <c r="J5">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490473</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.31638143507503</v>
+        <v>2.734917</v>
       </c>
       <c r="N5">
-        <v>2.31638143507503</v>
+        <v>8.204751</v>
       </c>
       <c r="O5">
-        <v>0.1633259102795807</v>
+        <v>0.1754197244717108</v>
       </c>
       <c r="P5">
-        <v>0.1633259102795807</v>
+        <v>0.1754197244717108</v>
       </c>
       <c r="Q5">
-        <v>7.629472935636726</v>
+        <v>0.365843465617</v>
       </c>
       <c r="R5">
-        <v>7.629472935636726</v>
+        <v>3.292591190553</v>
       </c>
       <c r="S5">
-        <v>0.09905388169522844</v>
+        <v>0.003623452559476173</v>
       </c>
       <c r="T5">
-        <v>0.09905388169522844</v>
+        <v>0.003623452559476171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.29370319590288</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H6">
-        <v>3.29370319590288</v>
+        <v>0.401303</v>
       </c>
       <c r="I6">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490474</v>
       </c>
       <c r="J6">
-        <v>0.6064798997640263</v>
+        <v>0.02065590155490473</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.24701067541158</v>
+        <v>6.817179333333333</v>
       </c>
       <c r="N6">
-        <v>6.24701067541158</v>
+        <v>20.451538</v>
       </c>
       <c r="O6">
-        <v>0.4404709386970225</v>
+        <v>0.4372592368717496</v>
       </c>
       <c r="P6">
-        <v>0.4404709386970225</v>
+        <v>0.4372592368717496</v>
       </c>
       <c r="Q6">
-        <v>20.57579902644253</v>
+        <v>0.9119181726682222</v>
       </c>
       <c r="R6">
-        <v>20.57579902644253</v>
+        <v>8.207263554014</v>
       </c>
       <c r="S6">
-        <v>0.2671367707499367</v>
+        <v>0.009031983750795631</v>
       </c>
       <c r="T6">
-        <v>0.2671367707499367</v>
+        <v>0.009031983750795627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1337676666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.401303</v>
+      </c>
+      <c r="I7">
+        <v>0.02065590155490474</v>
+      </c>
+      <c r="J7">
+        <v>0.02065590155490473</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.038607666666667</v>
+      </c>
+      <c r="N7">
+        <v>18.115823</v>
+      </c>
+      <c r="O7">
+        <v>0.3873210386565396</v>
+      </c>
+      <c r="P7">
+        <v>0.3873210386565396</v>
+      </c>
+      <c r="Q7">
+        <v>0.8077704574854445</v>
+      </c>
+      <c r="R7">
+        <v>7.269934117369</v>
+      </c>
+      <c r="S7">
+        <v>0.008000465244632934</v>
+      </c>
+      <c r="T7">
+        <v>0.008000465244632932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.280335</v>
+      </c>
+      <c r="H8">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J8">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.734917</v>
+      </c>
+      <c r="N8">
+        <v>8.204751</v>
+      </c>
+      <c r="O8">
+        <v>0.1754197244717108</v>
+      </c>
+      <c r="P8">
+        <v>0.1754197244717108</v>
+      </c>
+      <c r="Q8">
+        <v>6.236526957194998</v>
+      </c>
+      <c r="R8">
+        <v>56.12874261475499</v>
+      </c>
+      <c r="S8">
+        <v>0.06176893040081756</v>
+      </c>
+      <c r="T8">
+        <v>0.06176893040081754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.280335</v>
+      </c>
+      <c r="H9">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J9">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.817179333333333</v>
+      </c>
+      <c r="N9">
+        <v>20.451538</v>
+      </c>
+      <c r="O9">
+        <v>0.4372592368717496</v>
+      </c>
+      <c r="P9">
+        <v>0.4372592368717496</v>
+      </c>
+      <c r="Q9">
+        <v>15.54545263507666</v>
+      </c>
+      <c r="R9">
+        <v>139.90907371569</v>
+      </c>
+      <c r="S9">
+        <v>0.153968064029204</v>
+      </c>
+      <c r="T9">
+        <v>0.1539680640292039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.29370319590288</v>
-      </c>
-      <c r="H7">
-        <v>3.29370319590288</v>
-      </c>
-      <c r="I7">
-        <v>0.6064798997640263</v>
-      </c>
-      <c r="J7">
-        <v>0.6064798997640263</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.61917960216974</v>
-      </c>
-      <c r="N7">
-        <v>5.61917960216974</v>
-      </c>
-      <c r="O7">
-        <v>0.3962031510233968</v>
-      </c>
-      <c r="P7">
-        <v>0.3962031510233968</v>
-      </c>
-      <c r="Q7">
-        <v>18.50790981401875</v>
-      </c>
-      <c r="R7">
-        <v>18.50790981401875</v>
-      </c>
-      <c r="S7">
-        <v>0.2402892473188611</v>
-      </c>
-      <c r="T7">
-        <v>0.2402892473188611</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.280335</v>
+      </c>
+      <c r="H10">
+        <v>6.841004999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.3521207810971038</v>
+      </c>
+      <c r="J10">
+        <v>0.3521207810971037</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.038607666666667</v>
+      </c>
+      <c r="N10">
+        <v>18.115823</v>
+      </c>
+      <c r="O10">
+        <v>0.3873210386565396</v>
+      </c>
+      <c r="P10">
+        <v>0.3873210386565396</v>
+      </c>
+      <c r="Q10">
+        <v>13.77004841356833</v>
+      </c>
+      <c r="R10">
+        <v>123.930435722115</v>
+      </c>
+      <c r="S10">
+        <v>0.1363837866670823</v>
+      </c>
+      <c r="T10">
+        <v>0.1363837866670822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.524757</v>
+      </c>
+      <c r="H11">
+        <v>10.574271</v>
+      </c>
+      <c r="I11">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J11">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.734917</v>
+      </c>
+      <c r="N11">
+        <v>8.204751</v>
+      </c>
+      <c r="O11">
+        <v>0.1754197244717108</v>
+      </c>
+      <c r="P11">
+        <v>0.1754197244717108</v>
+      </c>
+      <c r="Q11">
+        <v>9.639917840168998</v>
+      </c>
+      <c r="R11">
+        <v>86.75926056152099</v>
+      </c>
+      <c r="S11">
+        <v>0.09547740564995691</v>
+      </c>
+      <c r="T11">
+        <v>0.0954774056499569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.524757</v>
+      </c>
+      <c r="H12">
+        <v>10.574271</v>
+      </c>
+      <c r="I12">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J12">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.817179333333333</v>
+      </c>
+      <c r="N12">
+        <v>20.451538</v>
+      </c>
+      <c r="O12">
+        <v>0.4372592368717496</v>
+      </c>
+      <c r="P12">
+        <v>0.4372592368717496</v>
+      </c>
+      <c r="Q12">
+        <v>24.028900575422</v>
+      </c>
+      <c r="R12">
+        <v>216.260105178798</v>
+      </c>
+      <c r="S12">
+        <v>0.2379913527895616</v>
+      </c>
+      <c r="T12">
+        <v>0.2379913527895616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.524757</v>
+      </c>
+      <c r="H13">
+        <v>10.574271</v>
+      </c>
+      <c r="I13">
+        <v>0.5442797606568703</v>
+      </c>
+      <c r="J13">
+        <v>0.5442797606568702</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.038607666666667</v>
+      </c>
+      <c r="N13">
+        <v>18.115823</v>
+      </c>
+      <c r="O13">
+        <v>0.3873210386565396</v>
+      </c>
+      <c r="P13">
+        <v>0.3873210386565396</v>
+      </c>
+      <c r="Q13">
+        <v>21.284624643337</v>
+      </c>
+      <c r="R13">
+        <v>191.561621790033</v>
+      </c>
+      <c r="S13">
+        <v>0.2108110022173518</v>
+      </c>
+      <c r="T13">
+        <v>0.2108110022173517</v>
       </c>
     </row>
   </sheetData>
